--- a/Netbeans/ANA-ADDIX/output/data_storage/nikkei.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/nikkei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
     </mc:Choice>
@@ -37,18 +37,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53049580W9A201C1DTA000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXZZO53052440W9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53052770W9A201C1916M00</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53050320W9A201C1TJC000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53051890W9A201C1L83000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53049880W9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53049690W9A201C1TJC000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXLASFL06HTR_W9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXLMS1333H5FDW9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXLASFL06HRJ_W9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGKKZO52998200V01C19A2BE0P00</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53042440W9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53039790W9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXZZO53034250W9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53033960W9A201C1000000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO52980070V01C19A2962M00</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO51480330Y9A021C1I00000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGKKZO53023150V01C19A2FFE000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53016470V01C19A2FFE000</t>
+  </si>
+  <si>
+    <t>https://www.nikkei.com/article/DGXMZO53015600V01C19A2TJ2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD706"/>
@@ -434,17 +495,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +624,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +652,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +680,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +708,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +764,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +792,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -685,7 +846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +902,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +930,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +958,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +986,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +1014,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -879,7 +1040,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -907,7 +1068,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
